--- a/data/20200526.xlsx
+++ b/data/20200526.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="7188" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="Antal per dag region" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Totalt antal per region" sheetId="4" r:id="rId4"/>
     <sheet name="Totalt antal per kön" sheetId="5" r:id="rId5"/>
     <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId6"/>
-    <sheet name="FOHM 24 May 2020" sheetId="7" r:id="rId7"/>
+    <sheet name="FOHM 25 May 2020" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -221,10 +221,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W112"/>
+  <dimension ref="A1:W114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
@@ -7092,7 +7093,7 @@
         <v>39</v>
       </c>
       <c r="P93" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q93" s="2">
         <v>17</v>
@@ -7107,7 +7108,7 @@
         <v>17</v>
       </c>
       <c r="U93" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="V93" s="2">
         <v>49</v>
@@ -7831,7 +7832,7 @@
         <v>43967</v>
       </c>
       <c r="B104" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C104" s="2">
         <v>2</v>
@@ -7867,7 +7868,7 @@
         <v>21</v>
       </c>
       <c r="N104" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O104" s="2">
         <v>5</v>
@@ -8186,7 +8187,7 @@
         <v>43972</v>
       </c>
       <c r="B109" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -8219,10 +8220,10 @@
         <v>6</v>
       </c>
       <c r="M109" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N109" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O109" s="2">
         <v>6</v>
@@ -8257,7 +8258,7 @@
         <v>43973</v>
       </c>
       <c r="B110" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C110" s="2">
         <v>10</v>
@@ -8293,7 +8294,7 @@
         <v>45</v>
       </c>
       <c r="N110" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O110" s="2">
         <v>10</v>
@@ -8328,13 +8329,13 @@
         <v>43974</v>
       </c>
       <c r="B111" s="2">
-        <v>247</v>
+        <v>403</v>
       </c>
       <c r="C111" s="2">
         <v>2</v>
       </c>
       <c r="D111" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E111" s="2">
         <v>0</v>
@@ -8346,52 +8347,52 @@
         <v>6</v>
       </c>
       <c r="H111" s="2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I111" s="2">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J111" s="2">
         <v>0</v>
       </c>
       <c r="K111" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="L111" s="2">
         <v>1</v>
       </c>
       <c r="M111" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N111" s="2">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="O111" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P111" s="2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="Q111" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R111" s="2">
         <v>6</v>
       </c>
       <c r="S111" s="2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="T111" s="2">
         <v>0</v>
       </c>
       <c r="U111" s="2">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="V111" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W111" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8399,71 +8400,145 @@
         <v>43975</v>
       </c>
       <c r="B112" s="2">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="C112" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D112" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G112" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H112" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J112" s="2">
         <v>0</v>
       </c>
       <c r="K112" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L112" s="2">
         <v>0</v>
       </c>
       <c r="M112" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N112" s="2">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="O112" s="2">
         <v>0</v>
       </c>
       <c r="P112" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q112" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R112" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S112" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T112" s="2">
         <v>0</v>
       </c>
       <c r="U112" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="V112" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="W112" s="2">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23">
+      <c r="A113" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B113" s="2">
+        <v>88</v>
+      </c>
+      <c r="C113" s="2">
+        <v>0</v>
+      </c>
+      <c r="D113" s="2">
+        <v>0</v>
+      </c>
+      <c r="E113" s="2">
+        <v>0</v>
+      </c>
+      <c r="F113" s="2">
+        <v>1</v>
+      </c>
+      <c r="G113" s="2">
+        <v>0</v>
+      </c>
+      <c r="H113" s="2">
+        <v>2</v>
+      </c>
+      <c r="I113" s="2">
+        <v>0</v>
+      </c>
+      <c r="J113" s="2">
+        <v>1</v>
+      </c>
+      <c r="K113" s="2">
+        <v>0</v>
+      </c>
+      <c r="L113" s="2">
+        <v>1</v>
+      </c>
+      <c r="M113" s="2">
+        <v>1</v>
+      </c>
+      <c r="N113" s="2">
+        <v>11</v>
+      </c>
+      <c r="O113" s="2">
+        <v>0</v>
+      </c>
+      <c r="P113" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>0</v>
+      </c>
+      <c r="R113" s="2">
+        <v>0</v>
+      </c>
+      <c r="S113" s="2">
+        <v>1</v>
+      </c>
+      <c r="T113" s="2">
+        <v>19</v>
+      </c>
+      <c r="U113" s="2">
+        <v>48</v>
+      </c>
+      <c r="V113" s="2">
+        <v>2</v>
+      </c>
+      <c r="W113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23">
+      <c r="B114" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8472,16 +8547,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -8976,7 +9048,7 @@
         <v>43961</v>
       </c>
       <c r="B62" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -8984,7 +9056,7 @@
         <v>43962</v>
       </c>
       <c r="B63" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -8992,7 +9064,7 @@
         <v>43963</v>
       </c>
       <c r="B64" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -9000,7 +9072,7 @@
         <v>43964</v>
       </c>
       <c r="B65" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -9016,7 +9088,7 @@
         <v>43966</v>
       </c>
       <c r="B67" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -9024,7 +9096,7 @@
         <v>43967</v>
       </c>
       <c r="B68" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -9032,7 +9104,7 @@
         <v>43968</v>
       </c>
       <c r="B69" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -9040,7 +9112,7 @@
         <v>43969</v>
       </c>
       <c r="B70" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -9048,7 +9120,7 @@
         <v>43970</v>
       </c>
       <c r="B71" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -9056,7 +9128,7 @@
         <v>43971</v>
       </c>
       <c r="B72" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -9064,7 +9136,7 @@
         <v>43972</v>
       </c>
       <c r="B73" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -9072,7 +9144,7 @@
         <v>43973</v>
       </c>
       <c r="B74" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -9080,16 +9152,35 @@
         <v>43974</v>
       </c>
       <c r="B75" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B76" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B77" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B76" s="2">
-        <v>20</v>
-      </c>
+      <c r="B78" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="B79" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9098,13 +9189,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -9439,7 +9533,7 @@
         <v>43936</v>
       </c>
       <c r="B42" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -9447,7 +9541,7 @@
         <v>43937</v>
       </c>
       <c r="B43" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -9599,7 +9693,7 @@
         <v>43956</v>
       </c>
       <c r="B62" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -9711,7 +9805,7 @@
         <v>43970</v>
       </c>
       <c r="B76" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -9719,7 +9813,7 @@
         <v>43971</v>
       </c>
       <c r="B77" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -9735,7 +9829,7 @@
         <v>43973</v>
       </c>
       <c r="B79" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -9743,7 +9837,7 @@
         <v>43974</v>
       </c>
       <c r="B80" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -9751,8 +9845,19 @@
         <v>43975</v>
       </c>
       <c r="B81" s="2">
-        <v>3</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B82" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="B83" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9761,13 +9866,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B23" sqref="B23:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -9791,10 +9896,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2">
-        <v>90.222175598144531</v>
+        <v>92.101799011230469</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -9808,13 +9913,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>1124</v>
+        <v>1131</v>
       </c>
       <c r="C3" s="2">
-        <v>390.3238525390625</v>
+        <v>392.75469970703125</v>
       </c>
       <c r="D3" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2">
         <v>129</v>
@@ -9825,10 +9930,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2">
-        <v>115.60499572753906</v>
+        <v>117.28043365478516</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
@@ -9842,13 +9947,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>1123</v>
+        <v>1128</v>
       </c>
       <c r="C5" s="2">
-        <v>390.76907348632813</v>
+        <v>392.5089111328125</v>
       </c>
       <c r="D5" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2">
         <v>96</v>
@@ -9859,16 +9964,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C6" s="2">
-        <v>195.59799194335938</v>
+        <v>196.19706726074219</v>
       </c>
       <c r="D6" s="2">
         <v>26</v>
       </c>
       <c r="E6" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9876,10 +9981,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="C7" s="2">
-        <v>480.08563232421875</v>
+        <v>486.9658203125</v>
       </c>
       <c r="D7" s="2">
         <v>15</v>
@@ -9893,16 +9998,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>1294</v>
+        <v>1323</v>
       </c>
       <c r="C8" s="2">
-        <v>355.88656616210938</v>
+        <v>363.86239624023438</v>
       </c>
       <c r="D8" s="2">
         <v>67</v>
       </c>
       <c r="E8" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9910,10 +10015,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C9" s="2">
-        <v>113.67062377929688</v>
+        <v>114.07804870605469</v>
       </c>
       <c r="D9" s="2">
         <v>23</v>
@@ -9927,10 +10032,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>718</v>
+        <v>745</v>
       </c>
       <c r="C10" s="2">
-        <v>356.38238525390625</v>
+        <v>369.783935546875</v>
       </c>
       <c r="D10" s="2">
         <v>13</v>
@@ -9944,10 +10049,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C11" s="2">
-        <v>143.94645690917969</v>
+        <v>144.34629821777344</v>
       </c>
       <c r="D11" s="2">
         <v>37</v>
@@ -9961,16 +10066,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>1482</v>
+        <v>1493</v>
       </c>
       <c r="C12" s="2">
-        <v>107.56067657470703</v>
+        <v>108.35903167724609</v>
       </c>
       <c r="D12" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E12" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -9978,16 +10083,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>11211</v>
+        <v>11271</v>
       </c>
       <c r="C13" s="2">
-        <v>471.62884521484375</v>
+        <v>474.1529541015625</v>
       </c>
       <c r="D13" s="2">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="E13" s="2">
-        <v>1936</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9995,16 +10100,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="C14" s="2">
-        <v>525.3074951171875</v>
+        <v>525.97967529296875</v>
       </c>
       <c r="D14" s="2">
         <v>118</v>
       </c>
       <c r="E14" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -10012,16 +10117,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>1662</v>
+        <v>1685</v>
       </c>
       <c r="C15" s="2">
-        <v>433.13623046875</v>
+        <v>439.13027954101563</v>
       </c>
       <c r="D15" s="2">
         <v>110</v>
       </c>
       <c r="E15" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -10029,16 +10134,16 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C16" s="2">
-        <v>142.69830322265625</v>
+        <v>144.11466979980469</v>
       </c>
       <c r="D16" s="2">
         <v>20</v>
       </c>
       <c r="E16" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -10046,13 +10151,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C17" s="2">
-        <v>170.75396728515625</v>
+        <v>171.85798645019531</v>
       </c>
       <c r="D17" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2">
         <v>23</v>
@@ -10063,16 +10168,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>572</v>
+        <v>593</v>
       </c>
       <c r="C18" s="2">
-        <v>233.13919067382813</v>
+        <v>241.698486328125</v>
       </c>
       <c r="D18" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -10080,16 +10185,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>1118</v>
+        <v>1137</v>
       </c>
       <c r="C19" s="2">
-        <v>405.30007934570313</v>
+        <v>412.18801879882813</v>
       </c>
       <c r="D19" s="2">
         <v>42</v>
       </c>
       <c r="E19" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -10097,13 +10202,13 @@
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>5050</v>
+        <v>5164</v>
       </c>
       <c r="C20" s="2">
-        <v>292.60418701171875</v>
+        <v>299.20950317382813</v>
       </c>
       <c r="D20" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="E20" s="2">
         <v>474</v>
@@ -10114,16 +10219,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>1639</v>
+        <v>1677</v>
       </c>
       <c r="C21" s="2">
-        <v>537.7208251953125</v>
+        <v>550.18780517578125</v>
       </c>
       <c r="D21" s="2">
         <v>69</v>
       </c>
       <c r="E21" s="2">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -10131,17 +10236,23 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>1903</v>
+        <v>1907</v>
       </c>
       <c r="C22" s="2">
-        <v>408.8121337890625</v>
+        <v>409.67141723632813</v>
       </c>
       <c r="D22" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E22" s="2">
         <v>165</v>
       </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10150,13 +10261,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -10177,13 +10288,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>13773</v>
+        <v>13906</v>
       </c>
       <c r="C2" s="2">
-        <v>1434</v>
+        <v>1452</v>
       </c>
       <c r="D2" s="2">
-        <v>2208</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10191,13 +10302,13 @@
         <v>35</v>
       </c>
       <c r="B3" s="2">
-        <v>19683</v>
+        <v>19934</v>
       </c>
       <c r="C3" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D3" s="2">
-        <v>1790</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10213,6 +10324,11 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10221,13 +10337,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -10248,7 +10364,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2">
         <v>4</v>
@@ -10262,7 +10378,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
@@ -10276,10 +10392,10 @@
         <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>3006</v>
+        <v>3054</v>
       </c>
       <c r="C4" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2">
         <v>8</v>
@@ -10290,10 +10406,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>3926</v>
+        <v>3974</v>
       </c>
       <c r="C5" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2">
         <v>12</v>
@@ -10304,10 +10420,10 @@
         <v>42</v>
       </c>
       <c r="B6" s="2">
-        <v>4793</v>
+        <v>4859</v>
       </c>
       <c r="C6" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D6" s="2">
         <v>38</v>
@@ -10318,10 +10434,10 @@
         <v>43</v>
       </c>
       <c r="B7" s="2">
-        <v>6008</v>
+        <v>6065</v>
       </c>
       <c r="C7" s="2">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="D7" s="2">
         <v>122</v>
@@ -10332,10 +10448,10 @@
         <v>44</v>
       </c>
       <c r="B8" s="2">
-        <v>4071</v>
+        <v>4112</v>
       </c>
       <c r="C8" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D8" s="2">
         <v>287</v>
@@ -10346,13 +10462,13 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>3800</v>
+        <v>3841</v>
       </c>
       <c r="C9" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D9" s="2">
-        <v>885</v>
+        <v>888</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -10360,13 +10476,13 @@
         <v>46</v>
       </c>
       <c r="B10" s="2">
-        <v>4702</v>
+        <v>4754</v>
       </c>
       <c r="C10" s="2">
         <v>75</v>
       </c>
       <c r="D10" s="2">
-        <v>1638</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -10374,13 +10490,13 @@
         <v>47</v>
       </c>
       <c r="B11" s="2">
-        <v>2600</v>
+        <v>2622</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>1007</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -10396,6 +10512,11 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10408,7 +10529,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/data/20200526.xlsx
+++ b/data/20200526.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Antal per dag region" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Totalt antal per region" sheetId="4" r:id="rId4"/>
     <sheet name="Totalt antal per kön" sheetId="5" r:id="rId5"/>
     <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId6"/>
-    <sheet name="FOHM 25 May 2020" sheetId="7" r:id="rId7"/>
+    <sheet name="FOHM 26 May 2020" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -221,11 +221,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6341,7 +6340,7 @@
         <v>43946</v>
       </c>
       <c r="B83" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -6350,7 +6349,7 @@
         <v>45</v>
       </c>
       <c r="E83" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" s="2">
         <v>23</v>
@@ -7093,7 +7092,7 @@
         <v>39</v>
       </c>
       <c r="P93" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q93" s="2">
         <v>17</v>
@@ -7108,7 +7107,7 @@
         <v>17</v>
       </c>
       <c r="U93" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V93" s="2">
         <v>49</v>
@@ -8116,7 +8115,7 @@
         <v>43971</v>
       </c>
       <c r="B108" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C108" s="2">
         <v>23</v>
@@ -8134,7 +8133,7 @@
         <v>42</v>
       </c>
       <c r="H108" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I108" s="2">
         <v>32</v>
@@ -8149,10 +8148,10 @@
         <v>7</v>
       </c>
       <c r="M108" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N108" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O108" s="2">
         <v>22</v>
@@ -8338,7 +8337,7 @@
         <v>13</v>
       </c>
       <c r="E111" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" s="2">
         <v>22</v>
@@ -8365,7 +8364,7 @@
         <v>27</v>
       </c>
       <c r="N111" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O111" s="2">
         <v>2</v>
@@ -8400,28 +8399,28 @@
         <v>43975</v>
       </c>
       <c r="B112" s="2">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="C112" s="2">
         <v>3</v>
       </c>
       <c r="D112" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E112" s="2">
         <v>1</v>
       </c>
       <c r="F112" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G112" s="2">
         <v>2</v>
       </c>
       <c r="H112" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J112" s="2">
         <v>0</v>
@@ -8433,16 +8432,16 @@
         <v>0</v>
       </c>
       <c r="M112" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N112" s="2">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="O112" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P112" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q112" s="2">
         <v>3</v>
@@ -8457,13 +8456,13 @@
         <v>0</v>
       </c>
       <c r="U112" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="V112" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W112" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8471,74 +8470,142 @@
         <v>43976</v>
       </c>
       <c r="B113" s="2">
-        <v>88</v>
+        <v>452</v>
       </c>
       <c r="C113" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D113" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E113" s="2">
         <v>0</v>
       </c>
       <c r="F113" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G113" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H113" s="2">
         <v>2</v>
       </c>
       <c r="I113" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J113" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K113" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L113" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M113" s="2">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="N113" s="2">
+        <v>128</v>
+      </c>
+      <c r="O113" s="2">
+        <v>14</v>
+      </c>
+      <c r="P113" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>2</v>
+      </c>
+      <c r="R113" s="2">
+        <v>0</v>
+      </c>
+      <c r="S113" s="2">
+        <v>3</v>
+      </c>
+      <c r="T113" s="2">
+        <v>28</v>
+      </c>
+      <c r="U113" s="2">
+        <v>107</v>
+      </c>
+      <c r="V113" s="2">
         <v>11</v>
       </c>
-      <c r="O113" s="2">
-        <v>0</v>
-      </c>
-      <c r="P113" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q113" s="2">
-        <v>0</v>
-      </c>
-      <c r="R113" s="2">
-        <v>0</v>
-      </c>
-      <c r="S113" s="2">
-        <v>1</v>
-      </c>
-      <c r="T113" s="2">
-        <v>19</v>
-      </c>
-      <c r="U113" s="2">
-        <v>48</v>
-      </c>
-      <c r="V113" s="2">
-        <v>2</v>
-      </c>
       <c r="W113" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:23">
-      <c r="B114" s="3"/>
+      <c r="A114" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B114" s="2">
+        <v>189</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0</v>
+      </c>
+      <c r="E114" s="2">
+        <v>0</v>
+      </c>
+      <c r="F114" s="2">
+        <v>6</v>
+      </c>
+      <c r="G114" s="2">
+        <v>0</v>
+      </c>
+      <c r="H114" s="2">
+        <v>14</v>
+      </c>
+      <c r="I114" s="2">
+        <v>3</v>
+      </c>
+      <c r="J114" s="2">
+        <v>5</v>
+      </c>
+      <c r="K114" s="2">
+        <v>0</v>
+      </c>
+      <c r="L114" s="2">
+        <v>4</v>
+      </c>
+      <c r="M114" s="2">
+        <v>24</v>
+      </c>
+      <c r="N114" s="2">
+        <v>23</v>
+      </c>
+      <c r="O114" s="2">
+        <v>11</v>
+      </c>
+      <c r="P114" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="2">
+        <v>10</v>
+      </c>
+      <c r="R114" s="2">
+        <v>0</v>
+      </c>
+      <c r="S114" s="2">
+        <v>8</v>
+      </c>
+      <c r="T114" s="2">
+        <v>17</v>
+      </c>
+      <c r="U114" s="2">
+        <v>39</v>
+      </c>
+      <c r="V114" s="2">
+        <v>0</v>
+      </c>
+      <c r="W114" s="2">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8549,8 +8616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B51" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9040,7 +9107,7 @@
         <v>43960</v>
       </c>
       <c r="B61" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -9056,7 +9123,7 @@
         <v>43962</v>
       </c>
       <c r="B63" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -9064,7 +9131,7 @@
         <v>43963</v>
       </c>
       <c r="B64" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -9072,7 +9139,7 @@
         <v>43964</v>
       </c>
       <c r="B65" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -9080,7 +9147,7 @@
         <v>43965</v>
       </c>
       <c r="B66" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -9088,7 +9155,7 @@
         <v>43966</v>
       </c>
       <c r="B67" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -9096,7 +9163,7 @@
         <v>43967</v>
       </c>
       <c r="B68" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -9104,7 +9171,7 @@
         <v>43968</v>
       </c>
       <c r="B69" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -9112,7 +9179,7 @@
         <v>43969</v>
       </c>
       <c r="B70" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -9120,7 +9187,7 @@
         <v>43970</v>
       </c>
       <c r="B71" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -9128,7 +9195,7 @@
         <v>43971</v>
       </c>
       <c r="B72" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -9136,7 +9203,7 @@
         <v>43972</v>
       </c>
       <c r="B73" s="2">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -9144,7 +9211,7 @@
         <v>43973</v>
       </c>
       <c r="B74" s="2">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -9152,7 +9219,7 @@
         <v>43974</v>
       </c>
       <c r="B75" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -9160,7 +9227,7 @@
         <v>43975</v>
       </c>
       <c r="B76" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -9168,19 +9235,24 @@
         <v>43976</v>
       </c>
       <c r="B77" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B79" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="B79" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9191,14 +9263,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -9525,7 +9594,7 @@
         <v>43935</v>
       </c>
       <c r="B41" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -9581,7 +9650,7 @@
         <v>43942</v>
       </c>
       <c r="B48" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -9797,7 +9866,7 @@
         <v>43969</v>
       </c>
       <c r="B75" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -9813,7 +9882,7 @@
         <v>43971</v>
       </c>
       <c r="B77" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -9829,7 +9898,7 @@
         <v>43973</v>
       </c>
       <c r="B79" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -9837,7 +9906,7 @@
         <v>43974</v>
       </c>
       <c r="B80" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -9845,7 +9914,7 @@
         <v>43975</v>
       </c>
       <c r="B81" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -9853,11 +9922,16 @@
         <v>43976</v>
       </c>
       <c r="B82" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="B83" s="3"/>
+      <c r="A83" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9866,10 +9940,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:E23"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9896,10 +9970,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2">
-        <v>92.101799011230469</v>
+        <v>93.981430053710938</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -9913,16 +9987,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>1131</v>
+        <v>1140</v>
       </c>
       <c r="C3" s="2">
-        <v>392.75469970703125</v>
+        <v>395.88006591796875</v>
       </c>
       <c r="D3" s="2">
         <v>56</v>
       </c>
       <c r="E3" s="2">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -9939,7 +10013,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9947,16 +10021,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>1128</v>
+        <v>1154</v>
       </c>
       <c r="C5" s="2">
-        <v>392.5089111328125</v>
+        <v>401.55612182617188</v>
       </c>
       <c r="D5" s="2">
         <v>47</v>
       </c>
       <c r="E5" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9964,13 +10038,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="C6" s="2">
-        <v>196.19706726074219</v>
+        <v>198.59336853027344</v>
       </c>
       <c r="D6" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2">
         <v>52</v>
@@ -9981,10 +10055,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="C7" s="2">
-        <v>486.9658203125</v>
+        <v>497.66836547851563</v>
       </c>
       <c r="D7" s="2">
         <v>15</v>
@@ -9998,16 +10072,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>1323</v>
+        <v>1359</v>
       </c>
       <c r="C8" s="2">
-        <v>363.86239624023438</v>
+        <v>373.76339721679688</v>
       </c>
       <c r="D8" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -10015,16 +10089,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="C9" s="2">
-        <v>114.07804870605469</v>
+        <v>122.22647857666016</v>
       </c>
       <c r="D9" s="2">
         <v>23</v>
       </c>
       <c r="E9" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10032,16 +10106,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="C10" s="2">
-        <v>369.783935546875</v>
+        <v>373.7547607421875</v>
       </c>
       <c r="D10" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -10049,10 +10123,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="C11" s="2">
-        <v>144.34629821777344</v>
+        <v>149.14451599121094</v>
       </c>
       <c r="D11" s="2">
         <v>37</v>
@@ -10066,16 +10140,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>1493</v>
+        <v>1545</v>
       </c>
       <c r="C12" s="2">
-        <v>108.35903167724609</v>
+        <v>112.13308715820313</v>
       </c>
       <c r="D12" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E12" s="2">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -10083,16 +10157,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>11271</v>
+        <v>11419</v>
       </c>
       <c r="C13" s="2">
-        <v>474.1529541015625</v>
+        <v>480.37908935546875</v>
       </c>
       <c r="D13" s="2">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="E13" s="2">
-        <v>1942</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -10100,16 +10174,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>1565</v>
+        <v>1591</v>
       </c>
       <c r="C14" s="2">
-        <v>525.97967529296875</v>
+        <v>534.718017578125</v>
       </c>
       <c r="D14" s="2">
         <v>118</v>
       </c>
       <c r="E14" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -10117,16 +10191,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>1685</v>
+        <v>1722</v>
       </c>
       <c r="C15" s="2">
-        <v>439.13027954101563</v>
+        <v>448.77291870117188</v>
       </c>
       <c r="D15" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E15" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -10134,10 +10208,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C16" s="2">
-        <v>144.11466979980469</v>
+        <v>148.36375427246094</v>
       </c>
       <c r="D16" s="2">
         <v>20</v>
@@ -10157,10 +10231,10 @@
         <v>171.85798645019531</v>
       </c>
       <c r="D17" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -10168,16 +10242,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="C18" s="2">
-        <v>241.698486328125</v>
+        <v>245.77435302734375</v>
       </c>
       <c r="D18" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -10185,16 +10259,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>1137</v>
+        <v>1163</v>
       </c>
       <c r="C19" s="2">
-        <v>412.18801879882813</v>
+        <v>421.61358642578125</v>
       </c>
       <c r="D19" s="2">
         <v>42</v>
       </c>
       <c r="E19" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -10202,16 +10276,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>5164</v>
+        <v>5267</v>
       </c>
       <c r="C20" s="2">
-        <v>299.20950317382813</v>
+        <v>305.17745971679688</v>
       </c>
       <c r="D20" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E20" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -10219,16 +10293,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>1677</v>
+        <v>1687</v>
       </c>
       <c r="C21" s="2">
-        <v>550.18780517578125</v>
+        <v>553.4686279296875</v>
       </c>
       <c r="D21" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E21" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -10236,23 +10310,17 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>1907</v>
+        <v>1944</v>
       </c>
       <c r="C22" s="2">
-        <v>409.67141723632813</v>
+        <v>417.61996459960938</v>
       </c>
       <c r="D22" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E22" s="2">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+        <v>172</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10261,11 +10329,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -10288,13 +10354,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>13906</v>
+        <v>14140</v>
       </c>
       <c r="C2" s="2">
-        <v>1452</v>
+        <v>1474</v>
       </c>
       <c r="D2" s="2">
-        <v>2219</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10302,13 +10368,13 @@
         <v>35</v>
       </c>
       <c r="B3" s="2">
-        <v>19934</v>
+        <v>20297</v>
       </c>
       <c r="C3" s="2">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="D3" s="2">
-        <v>1810</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10324,11 +10390,6 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10337,11 +10398,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -10364,7 +10423,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2">
         <v>4</v>
@@ -10378,10 +10437,10 @@
         <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="C3" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -10392,10 +10451,10 @@
         <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>3054</v>
+        <v>3104</v>
       </c>
       <c r="C4" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2">
         <v>8</v>
@@ -10406,10 +10465,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>3974</v>
+        <v>4051</v>
       </c>
       <c r="C5" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2">
         <v>12</v>
@@ -10420,13 +10479,13 @@
         <v>42</v>
       </c>
       <c r="B6" s="2">
-        <v>4859</v>
+        <v>4962</v>
       </c>
       <c r="C6" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D6" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10434,13 +10493,13 @@
         <v>43</v>
       </c>
       <c r="B7" s="2">
-        <v>6065</v>
+        <v>6190</v>
       </c>
       <c r="C7" s="2">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="D7" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -10448,13 +10507,13 @@
         <v>44</v>
       </c>
       <c r="B8" s="2">
-        <v>4112</v>
+        <v>4186</v>
       </c>
       <c r="C8" s="2">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="D8" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10462,13 +10521,13 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>3841</v>
+        <v>3888</v>
       </c>
       <c r="C9" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D9" s="2">
-        <v>888</v>
+        <v>909</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -10476,13 +10535,13 @@
         <v>46</v>
       </c>
       <c r="B10" s="2">
-        <v>4754</v>
+        <v>4830</v>
       </c>
       <c r="C10" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2">
-        <v>1656</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -10490,13 +10549,13 @@
         <v>47</v>
       </c>
       <c r="B11" s="2">
-        <v>2622</v>
+        <v>2652</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>1017</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -10504,7 +10563,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -10512,11 +10571,6 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10527,7 +10581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
